--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590816.293807297</v>
+        <v>588928.7122908942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>119.7641616298973</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.5968903908887</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>194.7016335971157</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>19.45240097060605</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>93.6984469626819</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>343.4002714754829</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887377</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>85.92645860395731</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="11">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>258.5789201965337</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>101.3913673420928</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>59.77945773664953</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>43.79590455125529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>57.69520250663616</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>253.1488561805824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.48630745579796</v>
+        <v>42.20569823125845</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.76109577523552</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898563</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533462992</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4364,16 +4364,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>215.5772630464452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>215.5772630464452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>68.68731554853485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>68.68731554853485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>68.68731554853485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>68.68731554853485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>884.2894331389243</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>884.2894331389243</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>498.5011805406801</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>491.5556797914766</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>73.59187168966349</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>73.59187168966349</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>485.3374297187173</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>825.7212517577275</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>397.6292392479589</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X10" t="n">
-        <v>397.6292392479589</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>693.9123150842264</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805466</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5476,10 +5476,10 @@
         <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>428.9821957028613</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>741.8439190510085</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.8439190510085</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406963</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013486</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>241.9805482336713</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,49 +6461,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163798</v>
+        <v>439.5324299542214</v>
       </c>
       <c r="C31" t="n">
-        <v>604.5641438163798</v>
+        <v>326.3571123076854</v>
       </c>
       <c r="D31" t="n">
-        <v>510.2083696854149</v>
+        <v>232.0013381767208</v>
       </c>
       <c r="E31" t="n">
-        <v>418.0561413843927</v>
+        <v>139.8491098756984</v>
       </c>
       <c r="F31" t="n">
-        <v>326.9270591678533</v>
+        <v>139.8491098756984</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962061</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818946</v>
+        <v>902.6804289818956</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652486</v>
+        <v>730.4517433652492</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652486</v>
+        <v>565.4200295030901</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737871</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802512</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083213</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103115</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982959</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982976</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108346</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045222</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010332</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>29.47535963978157</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>18.73797368291272</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>414.5002179180831</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231146</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>27.94407814005734</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>124.3182880469444</v>
+        <v>14.4554881988895</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154453</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>78.54216539558244</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>181.9137508377819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>228.8277958299548</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>33.0884962179949</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>32.80400437902246</v>
+        <v>69.08461360356188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571471</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.435012109141098e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26320,37 +26320,37 @@
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
+        <v>351926.1537639379</v>
+      </c>
+      <c r="G2" t="n">
         <v>351926.1537639381</v>
       </c>
-      <c r="G2" t="n">
-        <v>351926.153763938</v>
-      </c>
       <c r="H2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="J2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107434</v>
+        <v>366139.9236107427</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.796438928</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389282</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26433,31 @@
         <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="K4" t="n">
         <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26491,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26528,40 +26528,40 @@
         <v>120976.8505889935</v>
       </c>
       <c r="E6" t="n">
-        <v>-287395.8162485455</v>
+        <v>-287493.2753745176</v>
       </c>
       <c r="F6" t="n">
-        <v>237764.2202283508</v>
+        <v>237666.7611023784</v>
       </c>
       <c r="G6" t="n">
-        <v>237764.2202283507</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="H6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="I6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="J6" t="n">
-        <v>61341.00103575776</v>
+        <v>61243.5419097854</v>
       </c>
       <c r="K6" t="n">
-        <v>185009.8796766076</v>
+        <v>184991.3859386725</v>
       </c>
       <c r="L6" t="n">
-        <v>216817.3889898448</v>
+        <v>216817.3889898446</v>
       </c>
       <c r="M6" t="n">
-        <v>92359.28055687452</v>
+        <v>92359.28055687423</v>
       </c>
       <c r="N6" t="n">
-        <v>227160.2957907115</v>
+        <v>227160.2957907113</v>
       </c>
       <c r="O6" t="n">
-        <v>227160.2957907111</v>
+        <v>227160.295790711</v>
       </c>
       <c r="P6" t="n">
-        <v>182997.6904878658</v>
+        <v>182997.6904878659</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26759,22 +26759,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108346</v>
+        <v>12.92863350108335</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.2032566285573</v>
       </c>
     </row>
     <row r="3">
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.2032566285573</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>234.9188799907856</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>30.60306879764831</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>57.43600972671231</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>121.8639673834109</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>132.4789152742552</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>192.8245513739091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>11.28277014520006</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023379</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>200.5965397326337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>362.6699330377946</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412282</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043204</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>169.3134122708521</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160961</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081887</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
